--- a/template/third_data_import.xlsx
+++ b/template/third_data_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="7980" yWindow="1680" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>cookie ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>uv</t>
+  </si>
+  <si>
+    <t>impressions</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -41,6 +56,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -64,9 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,18 +420,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
